--- a/leda-submission-server/conf/Cronograma T1.xlsx
+++ b/leda-submission-server/conf/Cronograma T1.xlsx
@@ -35,6 +35,9 @@
     <t>P01-01</t>
   </si>
   <si>
+    <t>Prova pratica 01</t>
+  </si>
+  <si>
     <t>Data-Hora Limite Envio Normal</t>
   </si>
   <si>
@@ -56,33 +59,13 @@
     <t>Links Video Aulas</t>
   </si>
   <si>
-    <t>Prova pratica 01</t>
-  </si>
-  <si>
     <t>A01-01</t>
   </si>
   <si>
     <t>Aula Inicial</t>
   </si>
   <si>
-    <t>A disciplina requer uso do Eclipse e Maven nos exercícios de revisão e roteiros. Para isso é necessário que os alunos tenham conhecimentos básicos sobre essas ferramentas.
- &lt;ul&gt;
- &lt;li&gt;Eclipse:&lt;/li&gt;
- &lt;ul&gt;
- &lt;li&gt;&lt;a href="https://www.youtube.com/watch?v=ioBcjEkjxFE"&gt;Depurando programas em Eclipse&lt;/a&gt;&lt;/li&gt;
- &lt;li&gt;Aprenda e exercite o uso do Debugger do Eclipse (essencial para o curso) acessando &lt;a href="https://www.youtube.com/watch?v=v_dkbsVulW0" target="_blank"&gt;esse vídeo&lt;/a&gt;.&lt;/li&gt;
- &lt;li&gt;&lt;b&gt;O uso do Debugger do Eclipse É ESSENCIAL na disciplina&lt;/b&gt; para depurar e retirar os erros das implementações a serem desenvolvidas. 
- Quando da implementação dos roteiros a complexidade do código não permitirá o uso de métodos de impressão para depuração do código. 
- O Debugger do Eclipse, por outro lado, será muito útil na redução do tempo de depuração do seu programa.&lt;/li&gt;
- &lt;/ul&gt;
- &lt;li&gt;Maven:&lt;/li&gt;
- &lt;ul&gt;&lt;li&gt;&lt;a href="http://www.youtube.com/watch?v=vLXDlmnkwQo"&gt;Introdução ao Maven&lt;/a&gt;.&lt;/li&gt;
- &lt;li&gt;&lt;a href="http://www.youtube.com/watch?v=mSX5rOHrX-w"&gt;Ações simples em um projeto Maven&lt;/a&gt;.&lt;/li&gt;
- &lt;li&gt;&lt;a href="http://www.youtube.com/watch?v=al7bRZzz4oU&amp;amp;list=PL92E89440B7BFD0F6"&gt;Maven tutorial&lt;/a&gt; (excelente coleção de videos para dar uma visão geral com bons detalhes sobre Maven).&lt;/li&gt;
- &lt;li&gt;Dicas extras sobre Maven no Eclipse para a disciplina: &lt;a href="https://youtu.be/6jXPTsJPnZA" target="_blank"&gt;parte 01&lt;/a&gt;, &lt;a href="https://youtu.be/N-0xoQzFtLA" target="_blank"&gt;parte 02&lt;/a&gt;, &lt;a href="https://youtu.be/FczI3ruEys8" target="_blank"&gt;parte 03&lt;/a&gt;.&lt;/li&gt;
- &lt;li&gt;Vídeo explicativo geral sobre os exercícios de revisão e roteiros para a disciplina.&lt;/li&gt;
- &lt;/ul&gt;
- &lt;/ul&gt;</t>
+    <t>A disciplina requer uso do Eclipse e Maven nos exercícios de revisão e roteiros. Para isso é necessário que os alunos tenham conhecimentos básicos sobre essas ferramentas. Procurem ver os vídeos relacionados à familiarização com as ferramentas recomendados no topo da página.</t>
   </si>
   <si>
     <t>P01-02</t>
@@ -142,7 +125,10 @@
     <t>PF2-02</t>
   </si>
   <si>
-    <t>Monitor 1</t>
+    <t>Vélmer Oliveira Odon, Francisco Angelim de Figueirêdo Filho</t>
+  </si>
+  <si>
+    <t>Marcos Williams Cavalcanti de Arruda</t>
   </si>
   <si>
     <t>A02-01</t>
@@ -161,9 +147,6 @@
   </si>
   <si>
     <t>Este exercício é um projeto maven do Eclipse. Você precisa importar o projeto no Eclipse (como um projeto Maven). O projeto contém um PDF com a descrição do que precisa ser feito, classes a serem trabalhadas e pacotes da solução do professor. Primeiro faça o exercício sozinho. Depois compare sua resposta com a resposta do professor e tente entender as diferenças.</t>
-  </si>
-  <si>
-    <t>Monitor 1, Monitor 2</t>
   </si>
   <si>
     <t>Importação do projeto --- https://youtu.be/FBTC27CeXAs , Explicação sobre o exercício --- https://youtu.be/7ua6iIXCgZA</t>
@@ -235,7 +218,7 @@
     <t>Ordenação por comparação (extra)</t>
   </si>
   <si>
-    <t>Roteiro extra de ordenacao por comparação - comb e gnome</t>
+    <t>Roteiro extra de ordenacao por comparação</t>
   </si>
   <si>
     <t>Vídeo explicativo---https://youtu.be/0JU6xVgACHk</t>
@@ -247,16 +230,7 @@
     <t>Prova prática 1</t>
   </si>
   <si>
-    <t>Prova Pratica 1. Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! &lt;br&gt;
-As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!
-&lt;p&gt;Recomendações:
-&lt;ul&gt;
-&lt;li&gt;Procure chegar uns 10 min mais cedo para verificar se sua conta no laboratório e a máquina está funcionando corretamente.
-&lt;li&gt;Todos os alunos deverão usar os computadores dos laboratórios.
-&lt;li&gt;Se o aluno usar código de outro aluno (mesma turma, turma diferente ou semestre diferente) terá nota ZERO (quem copiou e quem cedeu).
-&lt;li&gt;Pegar código pronto da internet é proibido! Durante a prova apenas serão admitidas duas janelas abertas na maquina do aluno: a do eclipse e a do PDF com a descrição da prova. Navegadores só serão permitidos para fazer o download da prova e para o envio das respostas. Programas como messengers, chats, skype e similares estão proibidos.
-&lt;li&gt;Não será permitido pegar nenhum código pronto!!! A prova deverá ser desenvolvida completamente sem qualquer auxílio de código pronto.
-&lt;/ul&gt;</t>
+    <t>Prova Pratica 1. Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!</t>
   </si>
   <si>
     <t>R05-01</t>
@@ -301,16 +275,7 @@
     <t>Prova Pratica 2</t>
   </si>
   <si>
-    <t>Prova Pratica 2. Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! &lt;br&gt;
-As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!
-&lt;p&gt;Recomendações:
-&lt;ul&gt;
-&lt;li&gt;Procure chegar uns 10 min mais cedo para verificar se sua conta no laboratório e a máquina está funcionando corretamente.
-&lt;li&gt;Todos os alunos deverão usar os computadores dos laboratórios.
-&lt;li&gt;Se o aluno usar código de outro aluno (mesma turma, turma diferente ou semestre diferente) terá nota ZERO (quem copiou e quem cedeu).
-&lt;li&gt;Pegar código pronto da internet é proibido! Durante a prova apenas serão admitidas duas janelas abertas na maquina do aluno: a do eclipse e a do PDF com a descrição da prova. Navegadores só serão permitidos para fazer o download da prova e para o envio das respostas. Programas como messengers, chats, skype e similares estão proibidos.
-&lt;li&gt;O aluno será informado de qualquer implementação pronta que poderá utilizar. A princípio enhum código pronto deve ser levado.
-&lt;/ul&gt;</t>
+    <t>Prova Pratica 2. Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!</t>
   </si>
   <si>
     <t>A03-01</t>
@@ -385,16 +350,7 @@
     <t>Prova Prática 3</t>
   </si>
   <si>
-    <t>Prova Prática 3. Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! &lt;br&gt;
-As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!
-&lt;p&gt;Recomendações:
-&lt;ul&gt;
-&lt;li&gt;Procure chegar uns 10 min mais cedo para verificar se sua conta no laboratório e a máquina está funcionando corretamente.
-&lt;li&gt;Todos os alunos deverão usar os computadores dos laboratórios.
-&lt;li&gt;Se o aluno usar código de outro aluno (mesma turma, turma diferente ou semestre diferente) terá nota ZERO (quem copiou e quem cedeu).
-&lt;li&gt;Pegar código pronto da internet é proibido! Durante a prova apenas serão admitidas duas janelas abertas na maquina do aluno: a do eclipse e a do PDF com a descrição da prova. Navegadores só serão permitidos para fazer o download da prova e para o envio das respostas. Programas como messengers, chats, skype e similares estão proibidos.
-&lt;li&gt;O aluno será informado de qualquer implementação pronta que poderá utilizar. A princípio enhum código pronto deve ser levado.
-&lt;/ul&gt;</t>
+    <t>Prova Prática 3. Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!</t>
   </si>
   <si>
     <t>A04-01</t>
@@ -442,16 +398,7 @@
     <t>Prova Prática 4</t>
   </si>
   <si>
-    <t>Prova Prática 4.  Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! &lt;br&gt;
-As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!
-&lt;p&gt;Recomendações:
-&lt;ul&gt;
-&lt;li&gt;Procure chegar uns 10 min mais cedo para verificar se sua conta no laboratório e a máquina está funcionando corretamente.
-&lt;li&gt;Todos os alunos deverão usar os computadores dos laboratórios.
-&lt;li&gt;Se o aluno usar código de outro aluno (mesma turma, turma diferente ou semestre diferente) terá nota ZERO (quem copiou e quem cedeu).
-&lt;li&gt;Pegar código pronto da internet é proibido! Durante a prova apenas serão admitidas duas janelas abertas na maquina do aluno: a do eclipse e a do PDF com a descrição da prova. Navegadores só serão permitidos para fazer o download da prova e para o envio das respostas. Programas como messengers, chats, skype e similares estão proibidos.
-&lt;li&gt;O aluno será informado de qualquer implementação pronta que poderá utilizar. A princípio enhum código pronto deve ser levado.
-&lt;/ul&gt;</t>
+    <t>Prova Prática 4.  Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! As notas da prova serão publicadas e os alunos avisados. Até isso acontecer NÃO ENTREM EM CONTATO COM OS PROFESSORES para justificar nada,  querer ver a prova ou querer saber porque deu erro de compilação. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!</t>
   </si>
   <si>
     <t>A05-01</t>
@@ -472,16 +419,8 @@
     <t>Prova Final</t>
   </si>
   <si>
-    <t>Prova Final.  Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! &lt;br&gt;
-As notas da prova serão publicadas e os alunos avisados. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!
-&lt;p&gt;Recomendações:
-&lt;ul&gt;
-&lt;li&gt;Procure chegar uns 10 min mais cedo para verificar se sua conta no laboratório e a máquina está funcionando corretamente.
-&lt;li&gt;Todos os alunos deverão usar os computadores dos laboratórios.
-&lt;li&gt;Se o aluno usar código de outro aluno (mesma turma, turma diferente ou semestre diferente) terá nota ZERO (quem copiou e quem cedeu).
-&lt;li&gt;Pegar código pronto da internet é proibido! Durante a prova apenas serão admitidas duas janelas abertas na maquina do aluno: a do eclipse e a do PDF com a descrição da prova. Navegadores só serão permitidos para fazer o download da prova e para o envio das respostas. Programas como messengers, chats, skype e similares estão proibidos.
-&lt;li&gt;O aluno será informado de qualquer implementação pronta que poderá utilizar. A princípio enhum código pronto deve ser levado.
-&lt;/ul&gt;</t>
+    <t>Prova Final.  Verifique constantemente a &lt;a href="http://web.cloud.lsd.ufcg.edu.br:44174/submission/horaAtual"&gt;hora atual do servidor&lt;/a&gt;, pois o recebimento de submissões após essa hora NÃO ACONTECERÁ! As notas da prova serão publicadas e os alunos avisados. Será publicado no site o horário para revisão de provas e será comentado em sala sobre a solução!
+</t>
   </si>
 </sst>
 </file>
@@ -491,7 +430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -510,6 +449,9 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -556,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -569,45 +511,51 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -672,35 +620,35 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="56.25" customHeight="1">
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="9">
@@ -714,11 +662,11 @@
         <f t="shared" ref="F2:F15" si="2">D2 + 48/24</f>
         <v>42676.58333</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>37</v>
+      <c r="H2" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" ref="I2:I15" si="3">F2+1</f>
@@ -728,17 +676,17 @@
         <f t="shared" ref="J2:J15" si="4">I2+7</f>
         <v>42684.58333</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="12" t="s">
         <v>40</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="9">
         <v>42681.583333333336</v>
@@ -751,8 +699,8 @@
         <f t="shared" si="2"/>
         <v>42683.58333</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="9">
         <f t="shared" si="3"/>
         <v>42684.58333</v>
@@ -761,17 +709,17 @@
         <f t="shared" si="4"/>
         <v>42691.58333</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="9">
         <v>42683.583333333336</v>
@@ -784,11 +732,11 @@
         <f t="shared" si="2"/>
         <v>42685.58333</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="3"/>
@@ -798,7 +746,7 @@
         <f t="shared" si="4"/>
         <v>42693.58333</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -809,7 +757,7 @@
       <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="9">
@@ -823,8 +771,8 @@
         <f t="shared" si="2"/>
         <v>42692.66667</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="9">
         <f t="shared" si="3"/>
         <v>42693.66667</v>
@@ -833,7 +781,7 @@
         <f t="shared" si="4"/>
         <v>42700.66667</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="16" t="s">
         <v>49</v>
       </c>
     </row>
@@ -844,7 +792,7 @@
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
@@ -858,8 +806,8 @@
         <f t="shared" si="2"/>
         <v>42697.58333</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="9">
         <f t="shared" si="3"/>
         <v>42698.58333</v>
@@ -868,7 +816,7 @@
         <f t="shared" si="4"/>
         <v>42705.58333</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -879,7 +827,7 @@
       <c r="B7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="9">
@@ -893,8 +841,8 @@
         <f t="shared" si="2"/>
         <v>42699.66667</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="9">
         <f t="shared" si="3"/>
         <v>42700.66667</v>
@@ -903,7 +851,7 @@
         <f t="shared" si="4"/>
         <v>42707.66667</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -914,7 +862,7 @@
       <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="9">
@@ -928,8 +876,8 @@
         <f t="shared" si="2"/>
         <v>42704.58333</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="9">
         <f t="shared" si="3"/>
         <v>42705.58333</v>
@@ -938,7 +886,7 @@
         <f t="shared" si="4"/>
         <v>42712.58333</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="20" t="s">
         <v>61</v>
       </c>
     </row>
@@ -949,7 +897,7 @@
       <c r="B9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="9">
@@ -963,8 +911,8 @@
         <f t="shared" si="2"/>
         <v>42706.66667</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="9">
         <f t="shared" si="3"/>
         <v>42707.66667</v>
@@ -973,7 +921,7 @@
         <f t="shared" si="4"/>
         <v>42714.66667</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="19" t="s">
         <v>65</v>
       </c>
     </row>
@@ -984,7 +932,7 @@
       <c r="B10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="9">
@@ -998,8 +946,8 @@
         <f t="shared" si="2"/>
         <v>42711.58333</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="9">
         <f t="shared" si="3"/>
         <v>42712.58333</v>
@@ -1008,7 +956,7 @@
         <f t="shared" si="4"/>
         <v>42719.58333</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1019,7 +967,7 @@
       <c r="B11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="9">
@@ -1033,8 +981,8 @@
         <f t="shared" si="2"/>
         <v>42713.66667</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="9">
         <f t="shared" si="3"/>
         <v>42714.66667</v>
@@ -1043,7 +991,7 @@
         <f t="shared" si="4"/>
         <v>42721.66667</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
@@ -1052,7 +1000,7 @@
       <c r="B12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="9">
@@ -1066,8 +1014,8 @@
         <f t="shared" si="2"/>
         <v>42718.58333</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
         <v>42719.58333</v>
@@ -1076,7 +1024,7 @@
         <f t="shared" si="4"/>
         <v>42726.58333</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="19" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1087,7 +1035,7 @@
       <c r="B13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="9">
@@ -1101,8 +1049,8 @@
         <f t="shared" si="2"/>
         <v>42720.66667</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="9">
         <f t="shared" si="3"/>
         <v>42721.66667</v>
@@ -1111,7 +1059,7 @@
         <f t="shared" si="4"/>
         <v>42728.66667</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1122,7 +1070,7 @@
       <c r="B14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="9">
@@ -1136,8 +1084,8 @@
         <f t="shared" si="2"/>
         <v>42725.58333</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="9">
         <f t="shared" si="3"/>
         <v>42726.58333</v>
@@ -1146,7 +1094,7 @@
         <f t="shared" si="4"/>
         <v>42733.58333</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1154,10 +1102,10 @@
       <c r="A15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D15" s="9">
@@ -1171,8 +1119,8 @@
         <f t="shared" si="2"/>
         <v>42727.66667</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="9">
         <f t="shared" si="3"/>
         <v>42728.66667</v>
@@ -1181,16 +1129,16 @@
         <f t="shared" si="4"/>
         <v>42735.66667</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="9">
@@ -1198,20 +1146,20 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="9">
@@ -1225,8 +1173,8 @@
         <f t="shared" ref="F17:F34" si="6">D17 + 48/24</f>
         <v>42769.66667</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="9">
         <f t="shared" ref="I17:I34" si="7">F17+1</f>
         <v>42770.66667</v>
@@ -1235,7 +1183,7 @@
         <f t="shared" ref="J17:J34" si="8">I17+7</f>
         <v>42777.66667</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1243,10 +1191,10 @@
       <c r="A18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="21" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="9">
@@ -1260,8 +1208,8 @@
         <f t="shared" si="6"/>
         <v>42774.58333</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="9">
         <f t="shared" si="7"/>
         <v>42775.58333</v>
@@ -1270,7 +1218,7 @@
         <f t="shared" si="8"/>
         <v>42782.58333</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1278,10 +1226,10 @@
       <c r="A19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="9">
@@ -1295,8 +1243,8 @@
         <f t="shared" si="6"/>
         <v>42776.66667</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="9">
         <f t="shared" si="7"/>
         <v>42777.66667</v>
@@ -1305,7 +1253,7 @@
         <f t="shared" si="8"/>
         <v>42784.66667</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1316,7 +1264,7 @@
       <c r="B20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="9">
@@ -1330,8 +1278,8 @@
         <f t="shared" si="6"/>
         <v>42781.58333</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="9">
         <f t="shared" si="7"/>
         <v>42782.58333</v>
@@ -1340,7 +1288,7 @@
         <f t="shared" si="8"/>
         <v>42789.58333</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1351,7 +1299,7 @@
       <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="9">
@@ -1365,8 +1313,8 @@
         <f t="shared" si="6"/>
         <v>42783.66667</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="9">
         <f t="shared" si="7"/>
         <v>42784.66667</v>
@@ -1375,7 +1323,7 @@
         <f t="shared" si="8"/>
         <v>42791.66667</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1386,7 +1334,7 @@
       <c r="B22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="9">
@@ -1400,8 +1348,8 @@
         <f t="shared" si="6"/>
         <v>42788.58333</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="9">
         <f t="shared" si="7"/>
         <v>42789.58333</v>
@@ -1410,7 +1358,7 @@
         <f t="shared" si="8"/>
         <v>42796.58333</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1418,10 +1366,10 @@
       <c r="A23" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D23" s="9">
@@ -1435,8 +1383,8 @@
         <f t="shared" si="6"/>
         <v>42790.66667</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="9">
         <f t="shared" si="7"/>
         <v>42791.66667</v>
@@ -1445,7 +1393,7 @@
         <f t="shared" si="8"/>
         <v>42798.66667</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
@@ -1454,7 +1402,7 @@
       <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="9">
@@ -1468,8 +1416,8 @@
         <f t="shared" si="6"/>
         <v>42802.58333</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="9">
         <f t="shared" si="7"/>
         <v>42803.58333</v>
@@ -1478,7 +1426,7 @@
         <f t="shared" si="8"/>
         <v>42810.58333</v>
       </c>
-      <c r="K24" s="17"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
@@ -1487,7 +1435,7 @@
       <c r="B25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>115</v>
       </c>
       <c r="D25" s="9">
@@ -1501,8 +1449,8 @@
         <f t="shared" si="6"/>
         <v>42804.66667</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="9">
         <f t="shared" si="7"/>
         <v>42805.66667</v>
@@ -1511,7 +1459,7 @@
         <f t="shared" si="8"/>
         <v>42812.66667</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1522,7 +1470,7 @@
       <c r="B26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="9">
@@ -1536,8 +1484,8 @@
         <f t="shared" si="6"/>
         <v>42809.58333</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="9">
         <f t="shared" si="7"/>
         <v>42810.58333</v>
@@ -1546,7 +1494,7 @@
         <f t="shared" si="8"/>
         <v>42817.58333</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1557,7 +1505,7 @@
       <c r="B27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="21" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="9">
@@ -1571,8 +1519,8 @@
         <f t="shared" si="6"/>
         <v>42811.66667</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="9">
         <f t="shared" si="7"/>
         <v>42812.66667</v>
@@ -1581,7 +1529,7 @@
         <f t="shared" si="8"/>
         <v>42819.66667</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="19" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1589,10 +1537,10 @@
       <c r="A28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="23" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="9">
@@ -1606,8 +1554,8 @@
         <f t="shared" si="6"/>
         <v>42816.58333</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="9">
         <f t="shared" si="7"/>
         <v>42817.58333</v>
@@ -1616,7 +1564,7 @@
         <f t="shared" si="8"/>
         <v>42824.58333</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="19" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1624,10 +1572,10 @@
       <c r="A29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D29" s="9">
@@ -1641,8 +1589,8 @@
         <f t="shared" si="6"/>
         <v>42818.66667</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="9">
         <f t="shared" si="7"/>
         <v>42819.66667</v>
@@ -1651,16 +1599,16 @@
         <f t="shared" si="8"/>
         <v>42826.66667</v>
       </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="9">
@@ -1674,8 +1622,8 @@
         <f t="shared" si="6"/>
         <v>42823.58333</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="9">
         <f t="shared" si="7"/>
         <v>42824.58333</v>
@@ -1684,16 +1632,16 @@
         <f t="shared" si="8"/>
         <v>42831.58333</v>
       </c>
-      <c r="K30" s="11"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>130</v>
       </c>
       <c r="D31" s="9">
@@ -1707,8 +1655,8 @@
         <f t="shared" si="6"/>
         <v>42825.58333</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="9">
         <f t="shared" si="7"/>
         <v>42826.58333</v>
@@ -1717,16 +1665,16 @@
         <f t="shared" si="8"/>
         <v>42833.58333</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="24" t="s">
         <v>131</v>
       </c>
       <c r="D32" s="9">
@@ -1740,8 +1688,8 @@
         <f t="shared" si="6"/>
         <v>42825.58333</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="9">
         <f t="shared" si="7"/>
         <v>42826.58333</v>
@@ -1750,16 +1698,16 @@
         <f t="shared" si="8"/>
         <v>42833.58333</v>
       </c>
-      <c r="K32" s="11"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="9">
@@ -1773,8 +1721,8 @@
         <f t="shared" si="6"/>
         <v>42825.58333</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="9">
         <f t="shared" si="7"/>
         <v>42826.58333</v>
@@ -1783,16 +1731,16 @@
         <f t="shared" si="8"/>
         <v>42833.58333</v>
       </c>
-      <c r="K33" s="11"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D34" s="9">
@@ -1806,8 +1754,8 @@
         <f t="shared" si="6"/>
         <v>42837.58333</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="9">
         <f t="shared" si="7"/>
         <v>42838.58333</v>
@@ -1816,7 +1764,7 @@
         <f t="shared" si="8"/>
         <v>42845.58333</v>
       </c>
-      <c r="K34" s="11"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35">
       <c r="B35" s="10"/>
@@ -12438,12 +12386,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
         <v>42578.666666666664</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D15" si="1">C2 + 2/24</f>
         <v>42578.75</v>
       </c>
@@ -12453,12 +12401,12 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
         <v>42578.666666666664</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f t="shared" si="1"/>
         <v>42578.75</v>
       </c>
@@ -12470,10 +12418,10 @@
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>42606.666666666664</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>42606.75</v>
       </c>
@@ -12485,10 +12433,10 @@
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>42606.666666666664</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>42606.75</v>
       </c>
@@ -12500,10 +12448,10 @@
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>42646.583333333336</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>42646.66667</v>
       </c>
@@ -12515,10 +12463,10 @@
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>42646.583333333336</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>42646.66667</v>
       </c>
@@ -12530,10 +12478,10 @@
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>42648.666666666664</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>42648.75</v>
       </c>
@@ -12545,10 +12493,10 @@
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>42648.666666666664</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>42648.75</v>
       </c>
@@ -12560,10 +12508,10 @@
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>42648.666666666664</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>42648.75</v>
       </c>
@@ -12575,10 +12523,10 @@
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>42648.666666666664</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>42648.75</v>
       </c>
@@ -12590,10 +12538,10 @@
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>42648.666666666664</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>42648.75</v>
       </c>
@@ -12605,10 +12553,10 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>42648.666666666664</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>42648.75</v>
       </c>
@@ -12620,10 +12568,10 @@
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>42662.666666666664</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>42662.75</v>
       </c>
@@ -12635,10 +12583,10 @@
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>42662.666666666664</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>42662.75</v>
       </c>
